--- a/Tomate.xlsx
+++ b/Tomate.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR_2016\R_UNALM\cropdatape\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Tomate" sheetId="1" r:id="rId1"/>
+    <sheet name="tomate_proc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
   <si>
     <t>--</t>
   </si>
@@ -2830,19 +2824,34 @@
   </si>
   <si>
     <t>variable</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2873,13 +2882,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3170,28 +3178,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O174"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>930</v>
       </c>
@@ -3235,12 +3243,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3284,7 +3292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -3507,7 +3515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3595,7 +3603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -3683,7 +3691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -3771,7 +3779,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -3859,7 +3867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>120</v>
       </c>
@@ -3947,7 +3955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>123</v>
       </c>
@@ -4035,7 +4043,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -4167,7 +4175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>138</v>
       </c>
@@ -4211,7 +4219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>144</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -4299,7 +4307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>150</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -4387,7 +4395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -4431,7 +4439,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>170</v>
       </c>
@@ -4519,7 +4527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -4563,12 +4571,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="1" t="s">
         <v>930</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -4656,7 +4664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>29</v>
       </c>
@@ -4700,7 +4708,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>36</v>
       </c>
@@ -4744,7 +4752,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -4788,7 +4796,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4832,7 +4840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -4876,7 +4884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -5008,7 +5016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -5096,7 +5104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>90</v>
       </c>
@@ -5140,7 +5148,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -5272,7 +5280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>122</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -5404,7 +5412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>129</v>
       </c>
@@ -5448,7 +5456,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -5492,7 +5500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -5580,7 +5588,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>150</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -5800,7 +5808,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -5888,7 +5896,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -5932,12 +5940,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="1" t="s">
         <v>930</v>
       </c>
@@ -5981,7 +5989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>29</v>
       </c>
@@ -6069,7 +6077,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -6113,7 +6121,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -6157,7 +6165,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>53</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>64</v>
       </c>
@@ -6245,7 +6253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>69</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -6333,7 +6341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>74</v>
       </c>
@@ -6377,7 +6385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -6509,7 +6517,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>104</v>
       </c>
@@ -6553,7 +6561,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -6597,7 +6605,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>120</v>
       </c>
@@ -6685,7 +6693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>122</v>
       </c>
@@ -6729,7 +6737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>123</v>
       </c>
@@ -6773,7 +6781,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -6817,7 +6825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>130</v>
       </c>
@@ -6861,7 +6869,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>135</v>
       </c>
@@ -6905,7 +6913,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>138</v>
       </c>
@@ -6949,7 +6957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>144</v>
       </c>
@@ -6993,7 +7001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>146</v>
       </c>
@@ -7037,7 +7045,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>150</v>
       </c>
@@ -7081,7 +7089,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>154</v>
       </c>
@@ -7125,7 +7133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -7169,7 +7177,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -7213,7 +7221,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -7257,7 +7265,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -7301,12 +7309,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" s="1" t="s">
         <v>930</v>
       </c>
@@ -7350,7 +7358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -7394,7 +7402,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>29</v>
       </c>
@@ -7438,7 +7446,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -7482,7 +7490,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -7526,7 +7534,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>53</v>
       </c>
@@ -7570,7 +7578,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>64</v>
       </c>
@@ -7614,7 +7622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>69</v>
       </c>
@@ -7658,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -7702,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>74</v>
       </c>
@@ -7746,7 +7754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>77</v>
       </c>
@@ -7790,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>84</v>
       </c>
@@ -7834,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -7878,7 +7886,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -7966,7 +7974,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>119</v>
       </c>
@@ -8010,7 +8018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>120</v>
       </c>
@@ -8054,7 +8062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>122</v>
       </c>
@@ -8098,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>123</v>
       </c>
@@ -8142,7 +8150,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>129</v>
       </c>
@@ -8186,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -8230,7 +8238,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -8274,7 +8282,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -8318,7 +8326,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -8362,7 +8370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -8406,7 +8414,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -8450,7 +8458,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -8494,7 +8502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -8538,7 +8546,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -8582,7 +8590,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>170</v>
       </c>
@@ -8626,7 +8634,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -8670,12 +8678,12 @@
         <v>493</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" s="1" t="s">
         <v>930</v>
       </c>
@@ -8719,7 +8727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -8763,7 +8771,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>29</v>
       </c>
@@ -8807,7 +8815,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>36</v>
       </c>
@@ -8851,7 +8859,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>43</v>
       </c>
@@ -8895,7 +8903,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>53</v>
       </c>
@@ -8939,7 +8947,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>64</v>
       </c>
@@ -8983,7 +8991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>69</v>
       </c>
@@ -9027,7 +9035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>71</v>
       </c>
@@ -9071,7 +9079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>74</v>
       </c>
@@ -9115,7 +9123,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>77</v>
       </c>
@@ -9159,7 +9167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>84</v>
       </c>
@@ -9203,7 +9211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" t="s">
         <v>90</v>
       </c>
@@ -9247,7 +9255,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>104</v>
       </c>
@@ -9291,7 +9299,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>115</v>
       </c>
@@ -9335,7 +9343,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>119</v>
       </c>
@@ -9379,7 +9387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>120</v>
       </c>
@@ -9423,7 +9431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>122</v>
       </c>
@@ -9467,7 +9475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>123</v>
       </c>
@@ -9511,7 +9519,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>129</v>
       </c>
@@ -9555,7 +9563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>130</v>
       </c>
@@ -9599,7 +9607,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>135</v>
       </c>
@@ -9643,7 +9651,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>138</v>
       </c>
@@ -9687,7 +9695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>144</v>
       </c>
@@ -9731,7 +9739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>150</v>
       </c>
@@ -9819,7 +9827,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>154</v>
       </c>
@@ -9863,7 +9871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>155</v>
       </c>
@@ -9907,7 +9915,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" t="s">
         <v>165</v>
       </c>
@@ -9951,7 +9959,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>170</v>
       </c>
@@ -9995,7 +10003,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -10043,4 +10051,8438 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D1" t="s">
+        <v>931</v>
+      </c>
+      <c r="E1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>327</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>321</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>326</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>323</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>277</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>330</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>329</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" t="s">
+        <v>417</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+      <c r="E40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>415</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" t="s">
+        <v>407</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" t="s">
+        <v>419</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>416</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E46" t="s">
+        <v>418</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>409</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>229</v>
+      </c>
+      <c r="E50" t="s">
+        <v>404</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>62</v>
+      </c>
+      <c r="E54" t="s">
+        <v>402</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>407</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" t="s">
+        <v>406</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
+        <v>403</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
+      </c>
+      <c r="E58" t="s">
+        <v>405</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>409</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>408</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" t="s">
+        <v>374</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" t="s">
+        <v>382</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>371</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" t="s">
+        <v>372</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>377</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" t="s">
+        <v>381</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" t="s">
+        <v>380</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" t="s">
+        <v>379</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>135</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" t="s">
+        <v>127</v>
+      </c>
+      <c r="E74" t="s">
+        <v>361</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>86</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" t="s">
+        <v>400</v>
+      </c>
+      <c r="F76" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77" t="s">
+        <v>394</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>135</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" t="s">
+        <v>127</v>
+      </c>
+      <c r="E78" t="s">
+        <v>395</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>135</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>135</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" t="s">
+        <v>142</v>
+      </c>
+      <c r="E80" t="s">
+        <v>277</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>46</v>
+      </c>
+      <c r="D81" t="s">
+        <v>127</v>
+      </c>
+      <c r="E81" t="s">
+        <v>396</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E82" t="s">
+        <v>397</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>135</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" t="s">
+        <v>399</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>137</v>
+      </c>
+      <c r="D85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" t="s">
+        <v>398</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>66</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E87" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="s">
+        <v>294</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" t="s">
+        <v>299</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>39</v>
+      </c>
+      <c r="D96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>64</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E97" t="s">
+        <v>299</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>117</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+      <c r="E99" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>51</v>
+      </c>
+      <c r="E100" t="s">
+        <v>294</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" t="s">
+        <v>299</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>47</v>
+      </c>
+      <c r="D103" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>47</v>
+      </c>
+      <c r="D105" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="E110" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>66</v>
+      </c>
+      <c r="D111" t="s">
+        <v>63</v>
+      </c>
+      <c r="E111" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>42</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" t="s">
+        <v>42</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" t="s">
+        <v>59</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" t="s">
+        <v>151</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s">
+        <v>59</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>151</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" t="s">
+        <v>151</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" t="s">
+        <v>59</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" t="s">
+        <v>151</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>162</v>
+      </c>
+      <c r="E126" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>162</v>
+      </c>
+      <c r="E127" t="s">
+        <v>298</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>52</v>
+      </c>
+      <c r="E128" t="s">
+        <v>293</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>52</v>
+      </c>
+      <c r="E129" t="s">
+        <v>298</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>162</v>
+      </c>
+      <c r="E130" t="s">
+        <v>293</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>162</v>
+      </c>
+      <c r="E131" t="s">
+        <v>298</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>64</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>52</v>
+      </c>
+      <c r="E132" t="s">
+        <v>293</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>52</v>
+      </c>
+      <c r="E133" t="s">
+        <v>298</v>
+      </c>
+      <c r="F133" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>39</v>
+      </c>
+      <c r="D134" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" t="s">
+        <v>292</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" t="s">
+        <v>50</v>
+      </c>
+      <c r="E135" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>292</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>39</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>50</v>
+      </c>
+      <c r="E138" t="s">
+        <v>292</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>50</v>
+      </c>
+      <c r="E139" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>292</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>41</v>
+      </c>
+      <c r="D142" t="s">
+        <v>41</v>
+      </c>
+      <c r="E142" t="s">
+        <v>276</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>64</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>64</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>41</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+      <c r="D146" t="s">
+        <v>41</v>
+      </c>
+      <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>64</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>39</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>64</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>39</v>
+      </c>
+      <c r="D148" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>276</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>64</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>64</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>62</v>
+      </c>
+      <c r="E150" t="s">
+        <v>291</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>64</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>62</v>
+      </c>
+      <c r="E151" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>291</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>64</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>64</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>62</v>
+      </c>
+      <c r="E154" t="s">
+        <v>291</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>64</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>62</v>
+      </c>
+      <c r="E155" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>64</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>291</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>64</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>64</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" t="s">
+        <v>229</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>64</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>52</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>64</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>52</v>
+      </c>
+      <c r="D160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>229</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>64</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>52</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>64</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>229</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>64</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>229</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>64</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>64</v>
+      </c>
+      <c r="B166" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" t="s">
+        <v>39</v>
+      </c>
+      <c r="E166" t="s">
+        <v>296</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>64</v>
+      </c>
+      <c r="B167" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" t="s">
+        <v>39</v>
+      </c>
+      <c r="E167" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>64</v>
+      </c>
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>40</v>
+      </c>
+      <c r="D168" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>296</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>64</v>
+      </c>
+      <c r="B169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>40</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>64</v>
+      </c>
+      <c r="B170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>39</v>
+      </c>
+      <c r="E170" t="s">
+        <v>296</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>64</v>
+      </c>
+      <c r="B171" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>39</v>
+      </c>
+      <c r="E171" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>64</v>
+      </c>
+      <c r="B172" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>296</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>64</v>
+      </c>
+      <c r="B173" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>64</v>
+      </c>
+      <c r="B174" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>31</v>
+      </c>
+      <c r="D174" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" t="s">
+        <v>295</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>64</v>
+      </c>
+      <c r="B175" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>31</v>
+      </c>
+      <c r="D175" t="s">
+        <v>63</v>
+      </c>
+      <c r="E175" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>64</v>
+      </c>
+      <c r="B176" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>31</v>
+      </c>
+      <c r="D176" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>295</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>31</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>63</v>
+      </c>
+      <c r="E178" t="s">
+        <v>295</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>64</v>
+      </c>
+      <c r="B179" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>63</v>
+      </c>
+      <c r="E179" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>64</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>295</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>64</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>71</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>46</v>
+      </c>
+      <c r="D182" t="s">
+        <v>40</v>
+      </c>
+      <c r="E182" t="s">
+        <v>86</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>71</v>
+      </c>
+      <c r="B183" t="s">
+        <v>2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>31</v>
+      </c>
+      <c r="D183" t="s">
+        <v>40</v>
+      </c>
+      <c r="E183" t="s">
+        <v>303</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>71</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" t="s">
+        <v>62</v>
+      </c>
+      <c r="D185" t="s">
+        <v>46</v>
+      </c>
+      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>71</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>73</v>
+      </c>
+      <c r="D186" t="s">
+        <v>46</v>
+      </c>
+      <c r="E186" t="s">
+        <v>60</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>71</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>31</v>
+      </c>
+      <c r="D187" t="s">
+        <v>194</v>
+      </c>
+      <c r="E187" t="s">
+        <v>302</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>71</v>
+      </c>
+      <c r="B188" t="s">
+        <v>12</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188" t="s">
+        <v>51</v>
+      </c>
+      <c r="E188" t="s">
+        <v>301</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>71</v>
+      </c>
+      <c r="B189" t="s">
+        <v>9</v>
+      </c>
+      <c r="C189" t="s">
+        <v>40</v>
+      </c>
+      <c r="D189" t="s">
+        <v>40</v>
+      </c>
+      <c r="E189" t="s">
+        <v>41</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>71</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" t="s">
+        <v>46</v>
+      </c>
+      <c r="E190" t="s">
+        <v>47</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>71</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>40</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" t="s">
+        <v>229</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
+      </c>
+      <c r="C192" t="s">
+        <v>40</v>
+      </c>
+      <c r="D192" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" t="s">
+        <v>239</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>71</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" t="s">
+        <v>39</v>
+      </c>
+      <c r="F193" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>150</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>152</v>
+      </c>
+      <c r="D194" t="s">
+        <v>66</v>
+      </c>
+      <c r="E194" t="s">
+        <v>424</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>70</v>
+      </c>
+      <c r="D195" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195" t="s">
+        <v>88</v>
+      </c>
+      <c r="F195" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>150</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>82</v>
+      </c>
+      <c r="D196" t="s">
+        <v>39</v>
+      </c>
+      <c r="E196" t="s">
+        <v>268</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>150</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>192</v>
+      </c>
+      <c r="E197" t="s">
+        <v>421</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>150</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" t="s">
+        <v>117</v>
+      </c>
+      <c r="E198" t="s">
+        <v>422</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>150</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>76</v>
+      </c>
+      <c r="D199" t="s">
+        <v>239</v>
+      </c>
+      <c r="E199" t="s">
+        <v>427</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>150</v>
+      </c>
+      <c r="B200" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>153</v>
+      </c>
+      <c r="D200" t="s">
+        <v>66</v>
+      </c>
+      <c r="E200" t="s">
+        <v>426</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" t="s">
+        <v>151</v>
+      </c>
+      <c r="D201" t="s">
+        <v>47</v>
+      </c>
+      <c r="E201" t="s">
+        <v>423</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>150</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>76</v>
+      </c>
+      <c r="D202" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" t="s">
+        <v>425</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>151</v>
+      </c>
+      <c r="E203" t="s">
+        <v>429</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>48</v>
+      </c>
+      <c r="D204" t="s">
+        <v>240</v>
+      </c>
+      <c r="E204" t="s">
+        <v>428</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>150</v>
+      </c>
+      <c r="B205" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205" t="s">
+        <v>41</v>
+      </c>
+      <c r="E205" t="s">
+        <v>277</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>122</v>
+      </c>
+      <c r="B206" t="s">
+        <v>10</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>122</v>
+      </c>
+      <c r="B207" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>122</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" t="s">
+        <v>76</v>
+      </c>
+      <c r="D208" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>122</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>122</v>
+      </c>
+      <c r="B210" t="s">
+        <v>8</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>40</v>
+      </c>
+      <c r="E210" t="s">
+        <v>128</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>122</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>122</v>
+      </c>
+      <c r="B212" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>122</v>
+      </c>
+      <c r="B213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>122</v>
+      </c>
+      <c r="B214" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>76</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>122</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>122</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
+      <c r="C216" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" t="s">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>122</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>115</v>
+      </c>
+      <c r="B218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C218" t="s">
+        <v>52</v>
+      </c>
+      <c r="D218" t="s">
+        <v>117</v>
+      </c>
+      <c r="E218" t="s">
+        <v>359</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>115</v>
+      </c>
+      <c r="B219" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" t="s">
+        <v>46</v>
+      </c>
+      <c r="D219" t="s">
+        <v>52</v>
+      </c>
+      <c r="E219" t="s">
+        <v>363</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>115</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" t="s">
+        <v>39</v>
+      </c>
+      <c r="E220" t="s">
+        <v>366</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>115</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>60</v>
+      </c>
+      <c r="D221" t="s">
+        <v>46</v>
+      </c>
+      <c r="E221" t="s">
+        <v>168</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>115</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222" t="s">
+        <v>42</v>
+      </c>
+      <c r="D222" t="s">
+        <v>76</v>
+      </c>
+      <c r="E222" t="s">
+        <v>271</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>115</v>
+      </c>
+      <c r="B223" t="s">
+        <v>13</v>
+      </c>
+      <c r="C223" t="s">
+        <v>39</v>
+      </c>
+      <c r="D223" t="s">
+        <v>66</v>
+      </c>
+      <c r="E223" t="s">
+        <v>362</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>115</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" t="s">
+        <v>31</v>
+      </c>
+      <c r="D224" t="s">
+        <v>50</v>
+      </c>
+      <c r="E224" t="s">
+        <v>361</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>115</v>
+      </c>
+      <c r="B225" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" t="s">
+        <v>41</v>
+      </c>
+      <c r="D225" t="s">
+        <v>118</v>
+      </c>
+      <c r="E225" t="s">
+        <v>358</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>115</v>
+      </c>
+      <c r="B226" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" t="s">
+        <v>62</v>
+      </c>
+      <c r="D226" t="s">
+        <v>86</v>
+      </c>
+      <c r="E226" t="s">
+        <v>360</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>115</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>118</v>
+      </c>
+      <c r="D227" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" t="s">
+        <v>168</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>115</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" t="s">
+        <v>76</v>
+      </c>
+      <c r="E228" t="s">
+        <v>365</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>115</v>
+      </c>
+      <c r="B229" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" t="s">
+        <v>76</v>
+      </c>
+      <c r="D229" t="s">
+        <v>52</v>
+      </c>
+      <c r="E229" t="s">
+        <v>364</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>104</v>
+      </c>
+      <c r="B230" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230" t="s">
+        <v>108</v>
+      </c>
+      <c r="D230" t="s">
+        <v>60</v>
+      </c>
+      <c r="E230" t="s">
+        <v>348</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>104</v>
+      </c>
+      <c r="B231" t="s">
+        <v>2</v>
+      </c>
+      <c r="C231" t="s">
+        <v>106</v>
+      </c>
+      <c r="D231" t="s">
+        <v>220</v>
+      </c>
+      <c r="E231" t="s">
+        <v>352</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>104</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>224</v>
+      </c>
+      <c r="E232" t="s">
+        <v>356</v>
+      </c>
+      <c r="F232" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>104</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>109</v>
+      </c>
+      <c r="D233" t="s">
+        <v>216</v>
+      </c>
+      <c r="E233" t="s">
+        <v>345</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>104</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>110</v>
+      </c>
+      <c r="D234" t="s">
+        <v>217</v>
+      </c>
+      <c r="E234" t="s">
+        <v>346</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>104</v>
+      </c>
+      <c r="B235" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" t="s">
+        <v>114</v>
+      </c>
+      <c r="D235" t="s">
+        <v>219</v>
+      </c>
+      <c r="E235" t="s">
+        <v>351</v>
+      </c>
+      <c r="F235" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>104</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>113</v>
+      </c>
+      <c r="D236" t="s">
+        <v>158</v>
+      </c>
+      <c r="E236" t="s">
+        <v>350</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>104</v>
+      </c>
+      <c r="B237" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" t="s">
+        <v>111</v>
+      </c>
+      <c r="D237" t="s">
+        <v>87</v>
+      </c>
+      <c r="E237" t="s">
+        <v>347</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>104</v>
+      </c>
+      <c r="B238" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" t="s">
+        <v>112</v>
+      </c>
+      <c r="D238" t="s">
+        <v>218</v>
+      </c>
+      <c r="E238" t="s">
+        <v>349</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>104</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>108</v>
+      </c>
+      <c r="D239" t="s">
+        <v>223</v>
+      </c>
+      <c r="E239" t="s">
+        <v>355</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>104</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
+      </c>
+      <c r="C240" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" t="s">
+        <v>222</v>
+      </c>
+      <c r="E240" t="s">
+        <v>354</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>104</v>
+      </c>
+      <c r="B241" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" t="s">
+        <v>55</v>
+      </c>
+      <c r="D241" t="s">
+        <v>221</v>
+      </c>
+      <c r="E241" t="s">
+        <v>353</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>74</v>
+      </c>
+      <c r="B242" t="s">
+        <v>10</v>
+      </c>
+      <c r="C242" t="s">
+        <v>39</v>
+      </c>
+      <c r="D242" t="s">
+        <v>60</v>
+      </c>
+      <c r="E242" t="s">
+        <v>112</v>
+      </c>
+      <c r="F242" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>74</v>
+      </c>
+      <c r="B243" t="s">
+        <v>2</v>
+      </c>
+      <c r="C243" t="s">
+        <v>63</v>
+      </c>
+      <c r="D243" t="s">
+        <v>39</v>
+      </c>
+      <c r="E243" t="s">
+        <v>307</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>63</v>
+      </c>
+      <c r="D244" t="s">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>74</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>39</v>
+      </c>
+      <c r="D245" t="s">
+        <v>46</v>
+      </c>
+      <c r="E245" t="s">
+        <v>45</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>74</v>
+      </c>
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" t="s">
+        <v>76</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>74</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>40</v>
+      </c>
+      <c r="D247" t="s">
+        <v>62</v>
+      </c>
+      <c r="E247" t="s">
+        <v>306</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>74</v>
+      </c>
+      <c r="B248" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>76</v>
+      </c>
+      <c r="E248" t="s">
+        <v>128</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" t="s">
+        <v>76</v>
+      </c>
+      <c r="D249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" t="s">
+        <v>89</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>74</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>40</v>
+      </c>
+      <c r="D250" t="s">
+        <v>39</v>
+      </c>
+      <c r="E250" t="s">
+        <v>305</v>
+      </c>
+      <c r="F250" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>51</v>
+      </c>
+      <c r="D251" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>74</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>63</v>
+      </c>
+      <c r="E252" t="s">
+        <v>309</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>74</v>
+      </c>
+      <c r="B253" t="s">
+        <v>3</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253" t="s">
+        <v>308</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>120</v>
+      </c>
+      <c r="B254" t="s">
+        <v>10</v>
+      </c>
+      <c r="C254" t="s">
+        <v>52</v>
+      </c>
+      <c r="D254" t="s">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>120</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>76</v>
+      </c>
+      <c r="E255" t="s">
+        <v>268</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>120</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>120</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>120</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>47</v>
+      </c>
+      <c r="D258" t="s">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
+        <v>0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>120</v>
+      </c>
+      <c r="B259" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>46</v>
+      </c>
+      <c r="E259" t="s">
+        <v>128</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>120</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>120</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>45</v>
+      </c>
+      <c r="D261" t="s">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
+        <v>0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>120</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262" t="s">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
+        <v>0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>120</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>40</v>
+      </c>
+      <c r="E263" t="s">
+        <v>169</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>120</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>50</v>
+      </c>
+      <c r="E264" t="s">
+        <v>54</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>120</v>
+      </c>
+      <c r="B265" t="s">
+        <v>3</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>52</v>
+      </c>
+      <c r="E265" t="s">
+        <v>368</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>53</v>
+      </c>
+      <c r="B266" t="s">
+        <v>10</v>
+      </c>
+      <c r="C266" t="s">
+        <v>59</v>
+      </c>
+      <c r="D266" t="s">
+        <v>48</v>
+      </c>
+      <c r="E266" t="s">
+        <v>283</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>53</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2</v>
+      </c>
+      <c r="C267" t="s">
+        <v>55</v>
+      </c>
+      <c r="D267" t="s">
+        <v>67</v>
+      </c>
+      <c r="E267" t="s">
+        <v>287</v>
+      </c>
+      <c r="F267" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>53</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>58</v>
+      </c>
+      <c r="D268" t="s">
+        <v>47</v>
+      </c>
+      <c r="E268" t="s">
+        <v>244</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>53</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>59</v>
+      </c>
+      <c r="D269" t="s">
+        <v>160</v>
+      </c>
+      <c r="E269" t="s">
+        <v>280</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>53</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="s">
+        <v>60</v>
+      </c>
+      <c r="D270" t="s">
+        <v>191</v>
+      </c>
+      <c r="E270" t="s">
+        <v>281</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>53</v>
+      </c>
+      <c r="B271" t="s">
+        <v>13</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>192</v>
+      </c>
+      <c r="E271" t="s">
+        <v>286</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>53</v>
+      </c>
+      <c r="B272" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" t="s">
+        <v>61</v>
+      </c>
+      <c r="E272" t="s">
+        <v>285</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>53</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>61</v>
+      </c>
+      <c r="D273" t="s">
+        <v>50</v>
+      </c>
+      <c r="E273" t="s">
+        <v>282</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>53</v>
+      </c>
+      <c r="B274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C274" t="s">
+        <v>62</v>
+      </c>
+      <c r="D274" t="s">
+        <v>118</v>
+      </c>
+      <c r="E274" t="s">
+        <v>284</v>
+      </c>
+      <c r="F274" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>53</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>46</v>
+      </c>
+      <c r="D275" t="s">
+        <v>63</v>
+      </c>
+      <c r="E275" t="s">
+        <v>213</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>53</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
+      </c>
+      <c r="C276" t="s">
+        <v>57</v>
+      </c>
+      <c r="D276" t="s">
+        <v>63</v>
+      </c>
+      <c r="E276" t="s">
+        <v>289</v>
+      </c>
+      <c r="F276" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>53</v>
+      </c>
+      <c r="B277" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>56</v>
+      </c>
+      <c r="D277" t="s">
+        <v>192</v>
+      </c>
+      <c r="E277" t="s">
+        <v>288</v>
+      </c>
+      <c r="F277" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>43</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+      <c r="C278" t="s">
+        <v>50</v>
+      </c>
+      <c r="D278" t="s">
+        <v>76</v>
+      </c>
+      <c r="E278" t="s">
+        <v>271</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>43</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2</v>
+      </c>
+      <c r="C279" t="s">
+        <v>45</v>
+      </c>
+      <c r="D279" t="s">
+        <v>49</v>
+      </c>
+      <c r="E279" t="s">
+        <v>275</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>43</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>48</v>
+      </c>
+      <c r="D280" t="s">
+        <v>134</v>
+      </c>
+      <c r="E280" t="s">
+        <v>278</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>43</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>42</v>
+      </c>
+      <c r="D281" t="s">
+        <v>31</v>
+      </c>
+      <c r="E281" t="s">
+        <v>40</v>
+      </c>
+      <c r="F281" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>43</v>
+      </c>
+      <c r="B282" t="s">
+        <v>8</v>
+      </c>
+      <c r="C282" t="s">
+        <v>38</v>
+      </c>
+      <c r="D282" t="s">
+        <v>46</v>
+      </c>
+      <c r="E282" t="s">
+        <v>42</v>
+      </c>
+      <c r="F282" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>43</v>
+      </c>
+      <c r="B283" t="s">
+        <v>13</v>
+      </c>
+      <c r="C283" t="s">
+        <v>52</v>
+      </c>
+      <c r="D283" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" t="s">
+        <v>274</v>
+      </c>
+      <c r="F283" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>51</v>
+      </c>
+      <c r="D284" t="s">
+        <v>70</v>
+      </c>
+      <c r="E284" t="s">
+        <v>273</v>
+      </c>
+      <c r="F284" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>43</v>
+      </c>
+      <c r="B285" t="s">
+        <v>9</v>
+      </c>
+      <c r="C285" t="s">
+        <v>49</v>
+      </c>
+      <c r="D285" t="s">
+        <v>47</v>
+      </c>
+      <c r="E285" t="s">
+        <v>271</v>
+      </c>
+      <c r="F285" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>43</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>40</v>
+      </c>
+      <c r="D286" t="s">
+        <v>48</v>
+      </c>
+      <c r="E286" t="s">
+        <v>272</v>
+      </c>
+      <c r="F286" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>43</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>47</v>
+      </c>
+      <c r="D287" t="s">
+        <v>51</v>
+      </c>
+      <c r="E287" t="s">
+        <v>277</v>
+      </c>
+      <c r="F287" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>43</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
+      </c>
+      <c r="C288" t="s">
+        <v>46</v>
+      </c>
+      <c r="D288" t="s">
+        <v>63</v>
+      </c>
+      <c r="E288" t="s">
+        <v>276</v>
+      </c>
+      <c r="F288" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>43</v>
+      </c>
+      <c r="B289" t="s">
+        <v>3</v>
+      </c>
+      <c r="C289" t="s">
+        <v>40</v>
+      </c>
+      <c r="D289" t="s">
+        <v>66</v>
+      </c>
+      <c r="E289" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>90</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>100</v>
+      </c>
+      <c r="D290" t="s">
+        <v>207</v>
+      </c>
+      <c r="E290" t="s">
+        <v>335</v>
+      </c>
+      <c r="F290" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>90</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2</v>
+      </c>
+      <c r="C291" t="s">
+        <v>92</v>
+      </c>
+      <c r="D291" t="s">
+        <v>211</v>
+      </c>
+      <c r="E291" t="s">
+        <v>339</v>
+      </c>
+      <c r="F291" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>90</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
+      </c>
+      <c r="C292" t="s">
+        <v>96</v>
+      </c>
+      <c r="D292" t="s">
+        <v>207</v>
+      </c>
+      <c r="E292" t="s">
+        <v>343</v>
+      </c>
+      <c r="F292" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>90</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>97</v>
+      </c>
+      <c r="D293" t="s">
+        <v>204</v>
+      </c>
+      <c r="E293" t="s">
+        <v>332</v>
+      </c>
+      <c r="F293" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>90</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>98</v>
+      </c>
+      <c r="D294" t="s">
+        <v>205</v>
+      </c>
+      <c r="E294" t="s">
+        <v>333</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>90</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+      <c r="C295" t="s">
+        <v>103</v>
+      </c>
+      <c r="D295" t="s">
+        <v>210</v>
+      </c>
+      <c r="E295" t="s">
+        <v>338</v>
+      </c>
+      <c r="F295" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>90</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296" t="s">
+        <v>102</v>
+      </c>
+      <c r="D296" t="s">
+        <v>209</v>
+      </c>
+      <c r="E296" t="s">
+        <v>337</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>90</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" t="s">
+        <v>99</v>
+      </c>
+      <c r="D297" t="s">
+        <v>206</v>
+      </c>
+      <c r="E297" t="s">
+        <v>334</v>
+      </c>
+      <c r="F297" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>90</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>101</v>
+      </c>
+      <c r="D298" t="s">
+        <v>208</v>
+      </c>
+      <c r="E298" t="s">
+        <v>336</v>
+      </c>
+      <c r="F298" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>90</v>
+      </c>
+      <c r="B299" t="s">
+        <v>5</v>
+      </c>
+      <c r="C299" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" t="s">
+        <v>214</v>
+      </c>
+      <c r="E299" t="s">
+        <v>342</v>
+      </c>
+      <c r="F299" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>90</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
+      </c>
+      <c r="C300" t="s">
+        <v>94</v>
+      </c>
+      <c r="D300" t="s">
+        <v>213</v>
+      </c>
+      <c r="E300" t="s">
+        <v>341</v>
+      </c>
+      <c r="F300" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>90</v>
+      </c>
+      <c r="B301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301" t="s">
+        <v>93</v>
+      </c>
+      <c r="D301" t="s">
+        <v>212</v>
+      </c>
+      <c r="E301" t="s">
+        <v>340</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>165</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" t="s">
+        <v>66</v>
+      </c>
+      <c r="E302" t="s">
+        <v>202</v>
+      </c>
+      <c r="F302" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>165</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2</v>
+      </c>
+      <c r="C303" t="s">
+        <v>167</v>
+      </c>
+      <c r="D303" t="s">
+        <v>86</v>
+      </c>
+      <c r="E303" t="s">
+        <v>167</v>
+      </c>
+      <c r="F303" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>165</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>47</v>
+      </c>
+      <c r="D304" t="s">
+        <v>245</v>
+      </c>
+      <c r="E304" t="s">
+        <v>451</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>165</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" t="s">
+        <v>45</v>
+      </c>
+      <c r="D305" t="s">
+        <v>68</v>
+      </c>
+      <c r="E305" t="s">
+        <v>444</v>
+      </c>
+      <c r="F305" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>165</v>
+      </c>
+      <c r="B306" t="s">
+        <v>8</v>
+      </c>
+      <c r="C306" t="s">
+        <v>117</v>
+      </c>
+      <c r="D306" t="s">
+        <v>159</v>
+      </c>
+      <c r="E306" t="s">
+        <v>445</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>165</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" t="s">
+        <v>169</v>
+      </c>
+      <c r="D307" t="s">
+        <v>50</v>
+      </c>
+      <c r="E307" t="s">
+        <v>447</v>
+      </c>
+      <c r="F307" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>165</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>134</v>
+      </c>
+      <c r="D308" t="s">
+        <v>45</v>
+      </c>
+      <c r="E308" t="s">
+        <v>446</v>
+      </c>
+      <c r="F308" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>165</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9</v>
+      </c>
+      <c r="C309" t="s">
+        <v>66</v>
+      </c>
+      <c r="D309" t="s">
+        <v>38</v>
+      </c>
+      <c r="E309" t="s">
+        <v>388</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>165</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>76</v>
+      </c>
+      <c r="D310" t="s">
+        <v>39</v>
+      </c>
+      <c r="E310" t="s">
+        <v>68</v>
+      </c>
+      <c r="F310" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>165</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" t="s">
+        <v>86</v>
+      </c>
+      <c r="D311" t="s">
+        <v>128</v>
+      </c>
+      <c r="E311" t="s">
+        <v>450</v>
+      </c>
+      <c r="F311" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>165</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312" t="s">
+        <v>168</v>
+      </c>
+      <c r="D312" t="s">
+        <v>125</v>
+      </c>
+      <c r="E312" t="s">
+        <v>449</v>
+      </c>
+      <c r="F312" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>165</v>
+      </c>
+      <c r="B313" t="s">
+        <v>3</v>
+      </c>
+      <c r="C313" t="s">
+        <v>137</v>
+      </c>
+      <c r="D313" t="s">
+        <v>70</v>
+      </c>
+      <c r="E313" t="s">
+        <v>448</v>
+      </c>
+      <c r="F313" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>172</v>
+      </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" t="s">
+        <v>82</v>
+      </c>
+      <c r="D314" t="s">
+        <v>0</v>
+      </c>
+      <c r="E314" t="s">
+        <v>0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>172</v>
+      </c>
+      <c r="B315" t="s">
+        <v>2</v>
+      </c>
+      <c r="C315" t="s">
+        <v>46</v>
+      </c>
+      <c r="D315" t="s">
+        <v>40</v>
+      </c>
+      <c r="E315" t="s">
+        <v>461</v>
+      </c>
+      <c r="F315" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>172</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316" t="s">
+        <v>31</v>
+      </c>
+      <c r="E316" t="s">
+        <v>45</v>
+      </c>
+      <c r="F316" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>172</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317" t="s">
+        <v>0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>172</v>
+      </c>
+      <c r="B318" t="s">
+        <v>8</v>
+      </c>
+      <c r="C318" t="s">
+        <v>173</v>
+      </c>
+      <c r="D318" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" t="s">
+        <v>0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>172</v>
+      </c>
+      <c r="B319" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319" t="s">
+        <v>31</v>
+      </c>
+      <c r="D319" t="s">
+        <v>173</v>
+      </c>
+      <c r="E319" t="s">
+        <v>41</v>
+      </c>
+      <c r="F319" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>172</v>
+      </c>
+      <c r="B320" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" t="s">
+        <v>63</v>
+      </c>
+      <c r="D320" t="s">
+        <v>173</v>
+      </c>
+      <c r="E320" t="s">
+        <v>460</v>
+      </c>
+      <c r="F320" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>172</v>
+      </c>
+      <c r="B321" t="s">
+        <v>9</v>
+      </c>
+      <c r="C321" t="s">
+        <v>31</v>
+      </c>
+      <c r="D321" t="s">
+        <v>0</v>
+      </c>
+      <c r="E321" t="s">
+        <v>0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>172</v>
+      </c>
+      <c r="B322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" t="s">
+        <v>46</v>
+      </c>
+      <c r="D322" t="s">
+        <v>173</v>
+      </c>
+      <c r="E322" t="s">
+        <v>459</v>
+      </c>
+      <c r="F322" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>172</v>
+      </c>
+      <c r="B323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" t="s">
+        <v>31</v>
+      </c>
+      <c r="E323" t="s">
+        <v>45</v>
+      </c>
+      <c r="F323" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>172</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
+      </c>
+      <c r="C324" t="s">
+        <v>46</v>
+      </c>
+      <c r="D324" t="s">
+        <v>31</v>
+      </c>
+      <c r="E324" t="s">
+        <v>45</v>
+      </c>
+      <c r="F324" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>172</v>
+      </c>
+      <c r="B325" t="s">
+        <v>3</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>46</v>
+      </c>
+      <c r="E325" t="s">
+        <v>462</v>
+      </c>
+      <c r="F325" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>129</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>0</v>
+      </c>
+      <c r="E326" t="s">
+        <v>0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>129</v>
+      </c>
+      <c r="B327" t="s">
+        <v>2</v>
+      </c>
+      <c r="C327" t="s">
+        <v>31</v>
+      </c>
+      <c r="D327" t="s">
+        <v>46</v>
+      </c>
+      <c r="E327" t="s">
+        <v>89</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>129</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328" t="s">
+        <v>31</v>
+      </c>
+      <c r="D328" t="s">
+        <v>0</v>
+      </c>
+      <c r="E328" t="s">
+        <v>0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>129</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>31</v>
+      </c>
+      <c r="D329" t="s">
+        <v>31</v>
+      </c>
+      <c r="E329" t="s">
+        <v>127</v>
+      </c>
+      <c r="F329" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>129</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330" t="s">
+        <v>31</v>
+      </c>
+      <c r="E330" t="s">
+        <v>132</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>129</v>
+      </c>
+      <c r="B331" t="s">
+        <v>13</v>
+      </c>
+      <c r="C331" t="s">
+        <v>46</v>
+      </c>
+      <c r="D331" t="s">
+        <v>46</v>
+      </c>
+      <c r="E331" t="s">
+        <v>89</v>
+      </c>
+      <c r="F331" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>129</v>
+      </c>
+      <c r="B332" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>0</v>
+      </c>
+      <c r="E332" t="s">
+        <v>0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>129</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+      <c r="C333" t="s">
+        <v>63</v>
+      </c>
+      <c r="D333" t="s">
+        <v>46</v>
+      </c>
+      <c r="E333" t="s">
+        <v>89</v>
+      </c>
+      <c r="F333" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>129</v>
+      </c>
+      <c r="B334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334" t="s">
+        <v>31</v>
+      </c>
+      <c r="E334" t="s">
+        <v>132</v>
+      </c>
+      <c r="F334" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>129</v>
+      </c>
+      <c r="B335" t="s">
+        <v>5</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>31</v>
+      </c>
+      <c r="E335" t="s">
+        <v>132</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>129</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
+      </c>
+      <c r="C336" t="s">
+        <v>46</v>
+      </c>
+      <c r="D336" t="s">
+        <v>0</v>
+      </c>
+      <c r="E336" t="s">
+        <v>0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>129</v>
+      </c>
+      <c r="B337" t="s">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>31</v>
+      </c>
+      <c r="D337" t="s">
+        <v>0</v>
+      </c>
+      <c r="E337" t="s">
+        <v>0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>119</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>0</v>
+      </c>
+      <c r="E338" t="s">
+        <v>0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>119</v>
+      </c>
+      <c r="B339" t="s">
+        <v>2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>0</v>
+      </c>
+      <c r="E339" t="s">
+        <v>0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>119</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>119</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>0</v>
+      </c>
+      <c r="E341" t="s">
+        <v>0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>119</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>0</v>
+      </c>
+      <c r="E342" t="s">
+        <v>0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>119</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343" t="s">
+        <v>0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>119</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" t="s">
+        <v>31</v>
+      </c>
+      <c r="D344" t="s">
+        <v>0</v>
+      </c>
+      <c r="E344" t="s">
+        <v>0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>119</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>0</v>
+      </c>
+      <c r="E345" t="s">
+        <v>0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>119</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+      <c r="C346" t="s">
+        <v>46</v>
+      </c>
+      <c r="D346" t="s">
+        <v>0</v>
+      </c>
+      <c r="E346" t="s">
+        <v>0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>119</v>
+      </c>
+      <c r="B347" t="s">
+        <v>5</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>0</v>
+      </c>
+      <c r="E347" t="s">
+        <v>0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>119</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>40</v>
+      </c>
+      <c r="E348" t="s">
+        <v>125</v>
+      </c>
+      <c r="F348" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>119</v>
+      </c>
+      <c r="B349" t="s">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>0</v>
+      </c>
+      <c r="E349" t="s">
+        <v>0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>36</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>0</v>
+      </c>
+      <c r="E350" t="s">
+        <v>0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>36</v>
+      </c>
+      <c r="B351" t="s">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>38</v>
+      </c>
+      <c r="D351" t="s">
+        <v>0</v>
+      </c>
+      <c r="E351" t="s">
+        <v>0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>36</v>
+      </c>
+      <c r="B352" t="s">
+        <v>6</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>87</v>
+      </c>
+      <c r="E352" t="s">
+        <v>269</v>
+      </c>
+      <c r="F352" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>36</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>41</v>
+      </c>
+      <c r="D353" t="s">
+        <v>40</v>
+      </c>
+      <c r="E353" t="s">
+        <v>66</v>
+      </c>
+      <c r="F353" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>36</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>42</v>
+      </c>
+      <c r="D354" t="s">
+        <v>0</v>
+      </c>
+      <c r="E354" t="s">
+        <v>0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>36</v>
+      </c>
+      <c r="B355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" t="s">
+        <v>31</v>
+      </c>
+      <c r="D355" t="s">
+        <v>0</v>
+      </c>
+      <c r="E355" t="s">
+        <v>0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>36</v>
+      </c>
+      <c r="B356" t="s">
+        <v>12</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>45</v>
+      </c>
+      <c r="E356" t="s">
+        <v>267</v>
+      </c>
+      <c r="F356" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>36</v>
+      </c>
+      <c r="B357" t="s">
+        <v>9</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>0</v>
+      </c>
+      <c r="E357" t="s">
+        <v>0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>36</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>31</v>
+      </c>
+      <c r="D358" t="s">
+        <v>142</v>
+      </c>
+      <c r="E358" t="s">
+        <v>266</v>
+      </c>
+      <c r="F358" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>36</v>
+      </c>
+      <c r="B359" t="s">
+        <v>5</v>
+      </c>
+      <c r="C359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>39</v>
+      </c>
+      <c r="E359" t="s">
+        <v>268</v>
+      </c>
+      <c r="F359" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>36</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>40</v>
+      </c>
+      <c r="D360" t="s">
+        <v>0</v>
+      </c>
+      <c r="E360" t="s">
+        <v>0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>36</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>39</v>
+      </c>
+      <c r="D361" t="s">
+        <v>31</v>
+      </c>
+      <c r="E361" t="s">
+        <v>50</v>
+      </c>
+      <c r="F361" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>154</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+      <c r="C362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>46</v>
+      </c>
+      <c r="E362" t="s">
+        <v>52</v>
+      </c>
+      <c r="F362" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>154</v>
+      </c>
+      <c r="B363" t="s">
+        <v>2</v>
+      </c>
+      <c r="C363" t="s">
+        <v>63</v>
+      </c>
+      <c r="D363" t="s">
+        <v>0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>154</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>154</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>154</v>
+      </c>
+      <c r="B366" t="s">
+        <v>8</v>
+      </c>
+      <c r="C366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>154</v>
+      </c>
+      <c r="B367" t="s">
+        <v>13</v>
+      </c>
+      <c r="C367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>154</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" t="s">
+        <v>0</v>
+      </c>
+      <c r="D368" t="s">
+        <v>0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>154</v>
+      </c>
+      <c r="B369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+      <c r="D369" t="s">
+        <v>0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>154</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+      <c r="C370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D370" t="s">
+        <v>66</v>
+      </c>
+      <c r="E370" t="s">
+        <v>431</v>
+      </c>
+      <c r="F370" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>154</v>
+      </c>
+      <c r="B371" t="s">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371" t="s">
+        <v>0</v>
+      </c>
+      <c r="E371" t="s">
+        <v>0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>154</v>
+      </c>
+      <c r="B372" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" t="s">
+        <v>76</v>
+      </c>
+      <c r="D372" t="s">
+        <v>0</v>
+      </c>
+      <c r="E372" t="s">
+        <v>0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>154</v>
+      </c>
+      <c r="B373" t="s">
+        <v>3</v>
+      </c>
+      <c r="C373" t="s">
+        <v>63</v>
+      </c>
+      <c r="D373" t="s">
+        <v>0</v>
+      </c>
+      <c r="E373" t="s">
+        <v>0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>155</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" t="s">
+        <v>161</v>
+      </c>
+      <c r="D374" t="s">
+        <v>160</v>
+      </c>
+      <c r="E374" t="s">
+        <v>436</v>
+      </c>
+      <c r="F374" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>155</v>
+      </c>
+      <c r="B375" t="s">
+        <v>2</v>
+      </c>
+      <c r="C375" t="s">
+        <v>157</v>
+      </c>
+      <c r="D375" t="s">
+        <v>162</v>
+      </c>
+      <c r="E375" t="s">
+        <v>439</v>
+      </c>
+      <c r="F375" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>155</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>133</v>
+      </c>
+      <c r="D376" t="s">
+        <v>108</v>
+      </c>
+      <c r="E376" t="s">
+        <v>442</v>
+      </c>
+      <c r="F376" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>155</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>159</v>
+      </c>
+      <c r="D377" t="s">
+        <v>242</v>
+      </c>
+      <c r="E377" t="s">
+        <v>433</v>
+      </c>
+      <c r="F377" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>155</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" t="s">
+        <v>160</v>
+      </c>
+      <c r="D378" t="s">
+        <v>58</v>
+      </c>
+      <c r="E378" t="s">
+        <v>434</v>
+      </c>
+      <c r="F378" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>155</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379" t="s">
+        <v>164</v>
+      </c>
+      <c r="D379" t="s">
+        <v>126</v>
+      </c>
+      <c r="E379" t="s">
+        <v>438</v>
+      </c>
+      <c r="F379" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>155</v>
+      </c>
+      <c r="B380" t="s">
+        <v>12</v>
+      </c>
+      <c r="C380" t="s">
+        <v>163</v>
+      </c>
+      <c r="D380" t="s">
+        <v>132</v>
+      </c>
+      <c r="E380" t="s">
+        <v>223</v>
+      </c>
+      <c r="F380" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>155</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" t="s">
+        <v>58</v>
+      </c>
+      <c r="D381" t="s">
+        <v>162</v>
+      </c>
+      <c r="E381" t="s">
+        <v>435</v>
+      </c>
+      <c r="F381" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>155</v>
+      </c>
+      <c r="B382" t="s">
+        <v>11</v>
+      </c>
+      <c r="C382" t="s">
+        <v>162</v>
+      </c>
+      <c r="D382" t="s">
+        <v>168</v>
+      </c>
+      <c r="E382" t="s">
+        <v>437</v>
+      </c>
+      <c r="F382" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>155</v>
+      </c>
+      <c r="B383" t="s">
+        <v>5</v>
+      </c>
+      <c r="C383" t="s">
+        <v>127</v>
+      </c>
+      <c r="D383" t="s">
+        <v>76</v>
+      </c>
+      <c r="E383" t="s">
+        <v>37</v>
+      </c>
+      <c r="F383" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>155</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" t="s">
+        <v>48</v>
+      </c>
+      <c r="D384" t="s">
+        <v>243</v>
+      </c>
+      <c r="E384" t="s">
+        <v>441</v>
+      </c>
+      <c r="F384" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>155</v>
+      </c>
+      <c r="B385" t="s">
+        <v>3</v>
+      </c>
+      <c r="C385" t="s">
+        <v>158</v>
+      </c>
+      <c r="D385" t="s">
+        <v>163</v>
+      </c>
+      <c r="E385" t="s">
+        <v>440</v>
+      </c>
+      <c r="F385" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>130</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" t="s">
+        <v>110</v>
+      </c>
+      <c r="D386" t="s">
+        <v>0</v>
+      </c>
+      <c r="E386" t="s">
+        <v>0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>130</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2</v>
+      </c>
+      <c r="C387" t="s">
+        <v>132</v>
+      </c>
+      <c r="D387" t="s">
+        <v>42</v>
+      </c>
+      <c r="E387" t="s">
+        <v>389</v>
+      </c>
+      <c r="F387" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>130</v>
+      </c>
+      <c r="B388" t="s">
+        <v>6</v>
+      </c>
+      <c r="C388" t="s">
+        <v>39</v>
+      </c>
+      <c r="D388" t="s">
+        <v>41</v>
+      </c>
+      <c r="E388" t="s">
+        <v>273</v>
+      </c>
+      <c r="F388" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>130</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>76</v>
+      </c>
+      <c r="D389" t="s">
+        <v>132</v>
+      </c>
+      <c r="E389" t="s">
+        <v>384</v>
+      </c>
+      <c r="F389" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>130</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>63</v>
+      </c>
+      <c r="D390" t="s">
+        <v>41</v>
+      </c>
+      <c r="E390" t="s">
+        <v>385</v>
+      </c>
+      <c r="F390" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>130</v>
+      </c>
+      <c r="B391" t="s">
+        <v>13</v>
+      </c>
+      <c r="C391" t="s">
+        <v>41</v>
+      </c>
+      <c r="D391" t="s">
+        <v>63</v>
+      </c>
+      <c r="E391" t="s">
+        <v>388</v>
+      </c>
+      <c r="F391" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>130</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" t="s">
+        <v>134</v>
+      </c>
+      <c r="D392" t="s">
+        <v>76</v>
+      </c>
+      <c r="E392" t="s">
+        <v>368</v>
+      </c>
+      <c r="F392" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>130</v>
+      </c>
+      <c r="B393" t="s">
+        <v>9</v>
+      </c>
+      <c r="C393" t="s">
+        <v>42</v>
+      </c>
+      <c r="D393" t="s">
+        <v>47</v>
+      </c>
+      <c r="E393" t="s">
+        <v>386</v>
+      </c>
+      <c r="F393" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>130</v>
+      </c>
+      <c r="B394" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394" t="s">
+        <v>133</v>
+      </c>
+      <c r="D394" t="s">
+        <v>39</v>
+      </c>
+      <c r="E394" t="s">
+        <v>387</v>
+      </c>
+      <c r="F394" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>130</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>0</v>
+      </c>
+      <c r="D395" t="s">
+        <v>134</v>
+      </c>
+      <c r="E395" t="s">
+        <v>392</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>130</v>
+      </c>
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>47</v>
+      </c>
+      <c r="D396" t="s">
+        <v>133</v>
+      </c>
+      <c r="E396" t="s">
+        <v>391</v>
+      </c>
+      <c r="F396" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>130</v>
+      </c>
+      <c r="B397" t="s">
+        <v>3</v>
+      </c>
+      <c r="C397" t="s">
+        <v>41</v>
+      </c>
+      <c r="D397" t="s">
+        <v>110</v>
+      </c>
+      <c r="E397" t="s">
+        <v>390</v>
+      </c>
+      <c r="F397" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>29</v>
+      </c>
+      <c r="B398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" t="s">
+        <v>33</v>
+      </c>
+      <c r="D398" t="s">
+        <v>0</v>
+      </c>
+      <c r="E398" t="s">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>29</v>
+      </c>
+      <c r="B399" t="s">
+        <v>2</v>
+      </c>
+      <c r="C399" t="s">
+        <v>31</v>
+      </c>
+      <c r="D399" t="s">
+        <v>33</v>
+      </c>
+      <c r="E399" t="s">
+        <v>262</v>
+      </c>
+      <c r="F399" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>29</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>0</v>
+      </c>
+      <c r="D400" t="s">
+        <v>33</v>
+      </c>
+      <c r="E400" t="s">
+        <v>264</v>
+      </c>
+      <c r="F400" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>29</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" t="s">
+        <v>188</v>
+      </c>
+      <c r="E401" t="s">
+        <v>260</v>
+      </c>
+      <c r="F401" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>29</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" t="s">
+        <v>0</v>
+      </c>
+      <c r="D402" t="s">
+        <v>31</v>
+      </c>
+      <c r="E402" t="s">
+        <v>261</v>
+      </c>
+      <c r="F402" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>29</v>
+      </c>
+      <c r="B403" t="s">
+        <v>13</v>
+      </c>
+      <c r="C403" t="s">
+        <v>35</v>
+      </c>
+      <c r="D403" t="s">
+        <v>0</v>
+      </c>
+      <c r="E403" t="s">
+        <v>0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>29</v>
+      </c>
+      <c r="B404" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404" t="s">
+        <v>0</v>
+      </c>
+      <c r="D404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E404" t="s">
+        <v>0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>29</v>
+      </c>
+      <c r="B405" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" t="s">
+        <v>0</v>
+      </c>
+      <c r="D405" t="s">
+        <v>31</v>
+      </c>
+      <c r="E405" t="s">
+        <v>153</v>
+      </c>
+      <c r="F405" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>29</v>
+      </c>
+      <c r="B406" t="s">
+        <v>11</v>
+      </c>
+      <c r="C406" t="s">
+        <v>0</v>
+      </c>
+      <c r="D406" t="s">
+        <v>0</v>
+      </c>
+      <c r="E406" t="s">
+        <v>0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>29</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>35</v>
+      </c>
+      <c r="E407" t="s">
+        <v>263</v>
+      </c>
+      <c r="F407" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>29</v>
+      </c>
+      <c r="B408" t="s">
+        <v>4</v>
+      </c>
+      <c r="C408" t="s">
+        <v>33</v>
+      </c>
+      <c r="D408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E408" t="s">
+        <v>0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>29</v>
+      </c>
+      <c r="B409" t="s">
+        <v>3</v>
+      </c>
+      <c r="C409" t="s">
+        <v>32</v>
+      </c>
+      <c r="D409" t="s">
+        <v>0</v>
+      </c>
+      <c r="E409" t="s">
+        <v>0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>170</v>
+      </c>
+      <c r="B410" t="s">
+        <v>10</v>
+      </c>
+      <c r="C410" t="s">
+        <v>67</v>
+      </c>
+      <c r="D410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E410" t="s">
+        <v>0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>170</v>
+      </c>
+      <c r="B411" t="s">
+        <v>2</v>
+      </c>
+      <c r="C411" t="s">
+        <v>46</v>
+      </c>
+      <c r="D411" t="s">
+        <v>68</v>
+      </c>
+      <c r="E411" t="s">
+        <v>360</v>
+      </c>
+      <c r="F411" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>170</v>
+      </c>
+      <c r="B412" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" t="s">
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>46</v>
+      </c>
+      <c r="E412" t="s">
+        <v>457</v>
+      </c>
+      <c r="F412" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>170</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>0</v>
+      </c>
+      <c r="D413" t="s">
+        <v>46</v>
+      </c>
+      <c r="E413" t="s">
+        <v>453</v>
+      </c>
+      <c r="F413" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>170</v>
+      </c>
+      <c r="B414" t="s">
+        <v>8</v>
+      </c>
+      <c r="C414" t="s">
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>173</v>
+      </c>
+      <c r="E414" t="s">
+        <v>60</v>
+      </c>
+      <c r="F414" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>170</v>
+      </c>
+      <c r="B415" t="s">
+        <v>13</v>
+      </c>
+      <c r="C415" t="s">
+        <v>40</v>
+      </c>
+      <c r="D415" t="s">
+        <v>66</v>
+      </c>
+      <c r="E415" t="s">
+        <v>455</v>
+      </c>
+      <c r="F415" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>170</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+      <c r="C416" t="s">
+        <v>134</v>
+      </c>
+      <c r="D416" t="s">
+        <v>82</v>
+      </c>
+      <c r="E416" t="s">
+        <v>454</v>
+      </c>
+      <c r="F416" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>170</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" t="s">
+        <v>0</v>
+      </c>
+      <c r="D417" t="s">
+        <v>0</v>
+      </c>
+      <c r="E417" t="s">
+        <v>0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>170</v>
+      </c>
+      <c r="B418" t="s">
+        <v>11</v>
+      </c>
+      <c r="C418" t="s">
+        <v>159</v>
+      </c>
+      <c r="D418" t="s">
+        <v>0</v>
+      </c>
+      <c r="E418" t="s">
+        <v>0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>170</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>0</v>
+      </c>
+      <c r="D419" t="s">
+        <v>0</v>
+      </c>
+      <c r="E419" t="s">
+        <v>0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>170</v>
+      </c>
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" t="s">
+        <v>40</v>
+      </c>
+      <c r="D420" t="s">
+        <v>31</v>
+      </c>
+      <c r="E420" t="s">
+        <v>194</v>
+      </c>
+      <c r="F420" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>170</v>
+      </c>
+      <c r="B421" t="s">
+        <v>3</v>
+      </c>
+      <c r="C421" t="s">
+        <v>46</v>
+      </c>
+      <c r="D421" t="s">
+        <v>132</v>
+      </c>
+      <c r="E421" t="s">
+        <v>456</v>
+      </c>
+      <c r="F421" t="n">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>